--- a/data_processed/20250725/BTCUSDQMOMENT_20250725.xlsx
+++ b/data_processed/20250725/BTCUSDQMOMENT_20250725.xlsx
@@ -1166,10 +1166,18 @@
       <c r="H19" t="n">
         <v>25.54216820437707</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.2002872124710258</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.1370903966927975</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.06502238569519557</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.081799930256534</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250725/BTCUSDQMOMENT_20250725.xlsx
+++ b/data_processed/20250725/BTCUSDQMOMENT_20250725.xlsx
@@ -524,10 +524,18 @@
       <c r="H2" t="n">
         <v>12.99760402802692</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0.04797804163260821</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.2267480407458296</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.3904699698200783</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.722337173295156</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">

--- a/data_processed/20250725/BTCUSDQMOMENT_20250725.xlsx
+++ b/data_processed/20250725/BTCUSDQMOMENT_20250725.xlsx
@@ -510,19 +510,19 @@
         <v>0.0958904109589041</v>
       </c>
       <c r="D2" t="n">
-        <v>117842.6557430885</v>
+        <v>117842.3560886971</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03482306967292888</v>
+        <v>0.03480887865753751</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2083327303014348</v>
+        <v>0.2083876515397173</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.515527306806939</v>
+        <v>-1.517125616962864</v>
       </c>
       <c r="H2" t="n">
-        <v>12.99760402802692</v>
+        <v>13.01025193176428</v>
       </c>
       <c r="I2" t="n">
         <v>0.04797804163260821</v>
@@ -586,19 +586,19 @@
         <v>0.2684931506849315</v>
       </c>
       <c r="D4" t="n">
-        <v>119587.9453846846</v>
+        <v>119413.9730069361</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01057920168332158</v>
+        <v>0.003636777061898183</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2291091900022415</v>
+        <v>0.2581598333271358</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.8053803669497723</v>
+        <v>-1.594843558567075</v>
       </c>
       <c r="H4" t="n">
-        <v>8.225105817529601</v>
+        <v>14.6061876952162</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -620,19 +620,19 @@
         <v>0.3452054794520548</v>
       </c>
       <c r="D5" t="n">
-        <v>120254.1471981216</v>
+        <v>120188.0826928579</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002609242708103603</v>
+        <v>-4.596591229468189e-06</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2291104376050218</v>
+        <v>0.239418996831256</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4063277253498986</v>
+        <v>-0.6897795567840518</v>
       </c>
       <c r="H5" t="n">
-        <v>5.928491710496568</v>
+        <v>7.776512527321323</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -654,19 +654,19 @@
         <v>0.4219178082191781</v>
       </c>
       <c r="D6" t="n">
-        <v>120677.1936355513</v>
+        <v>120679.5346051632</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.01309346882980344</v>
+        <v>-0.0129212589388291</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2698079302520327</v>
+        <v>0.2686272240569052</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.155858174793292</v>
+        <v>-1.113558203396932</v>
       </c>
       <c r="H6" t="n">
-        <v>10.22404393373511</v>
+        <v>9.766889088260266</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -688,19 +688,19 @@
         <v>0.8438356164383561</v>
       </c>
       <c r="D7" t="n">
-        <v>122370.8841990433</v>
+        <v>122369.2132783464</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.03303690669096539</v>
+        <v>-0.03295327730884902</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2252672508482697</v>
+        <v>0.2243752785052507</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.9737046454764159</v>
+        <v>-0.9281486600866998</v>
       </c>
       <c r="H7" t="n">
-        <v>8.219791638832792</v>
+        <v>7.708840126100794</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -722,19 +722,19 @@
         <v>0.9205479452054794</v>
       </c>
       <c r="D8" t="n">
-        <v>124739.8293393695</v>
+        <v>123794.9935553745</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.03953824869336557</v>
+        <v>-0.06290132379193823</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2672518347643851</v>
+        <v>0.3341681536268916</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.8186804325992275</v>
+        <v>-1.569242060850352</v>
       </c>
       <c r="H8" t="n">
-        <v>6.523822280260681</v>
+        <v>10.01434846283351</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -756,19 +756,19 @@
         <v>1.16986301369863</v>
       </c>
       <c r="D9" t="n">
-        <v>125036.2241302849</v>
+        <v>125038.2742885055</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.1064898818723204</v>
+        <v>-0.1053904517232215</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4559877413350797</v>
+        <v>0.4477531760926195</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.041042290560201</v>
+        <v>-1.94453028825256</v>
       </c>
       <c r="H9" t="n">
-        <v>10.70087471934169</v>
+        <v>9.866577669656291</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -824,19 +824,19 @@
         <v>0.00821917808219178</v>
       </c>
       <c r="D11" t="n">
-        <v>117837.8881791202</v>
+        <v>117836.9972784511</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2161806875928237</v>
+        <v>0.216211654142799</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1277416215922624</v>
+        <v>0.1244676369703484</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.060021478159945</v>
+        <v>-1.516108179991855</v>
       </c>
       <c r="H11" t="n">
-        <v>22.75678817485518</v>
+        <v>12.48148922470957</v>
       </c>
       <c r="I11" t="n">
         <v>0.4532322433792562</v>
@@ -866,19 +866,19 @@
         <v>0.0273972602739726</v>
       </c>
       <c r="D12" t="n">
-        <v>117849.0098526672</v>
+        <v>117921.4858758598</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1054716206170849</v>
+        <v>0.1112488352452739</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2063894393374289</v>
+        <v>0.1752522630527318</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.082190997848706</v>
+        <v>-0.830784814255098</v>
       </c>
       <c r="H12" t="n">
-        <v>19.09358309100355</v>
+        <v>7.917398500880876</v>
       </c>
       <c r="I12" t="n">
         <v>0.1913047218822334</v>
@@ -908,19 +908,19 @@
         <v>0.01095890410958904</v>
       </c>
       <c r="D13" t="n">
-        <v>117823.4403074432</v>
+        <v>117841.216714712</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1825644888400754</v>
+        <v>0.1847764920115214</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1650778861884859</v>
+        <v>0.1470053744034521</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.641379093349931</v>
+        <v>-1.149054835375477</v>
       </c>
       <c r="H13" t="n">
-        <v>31.06758009217689</v>
+        <v>9.133740400557254</v>
       </c>
       <c r="I13" t="n">
         <v>0.4495065209251909</v>
@@ -992,19 +992,19 @@
         <v>0.01643835616438356</v>
       </c>
       <c r="D15" t="n">
-        <v>117849.4826991818</v>
+        <v>117891.9396738128</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1436776429856447</v>
+        <v>0.1482616109569921</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2238040092503193</v>
+        <v>0.1888558532581152</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.714632383739605</v>
+        <v>-1.029176513388569</v>
       </c>
       <c r="H15" t="n">
-        <v>29.1206510739106</v>
+        <v>9.342419389652465</v>
       </c>
       <c r="I15" t="n">
         <v>0.4417741009543237</v>
@@ -1034,19 +1034,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D16" t="n">
-        <v>118032.6943679702</v>
+        <v>117775.0211533045</v>
       </c>
       <c r="E16" t="n">
-        <v>0.139152850315003</v>
+        <v>0.1278979360488205</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2376562773907264</v>
+        <v>0.199233787984637</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.3350952732233319</v>
+        <v>-1.887144836242889</v>
       </c>
       <c r="H16" t="n">
-        <v>19.31301605893481</v>
+        <v>15.51763069064654</v>
       </c>
       <c r="I16" t="n">
         <v>0.3744892786321432</v>
@@ -1118,19 +1118,19 @@
         <v>0.05753424657534247</v>
       </c>
       <c r="D18" t="n">
-        <v>117902.7720103084</v>
+        <v>117946.8995725916</v>
       </c>
       <c r="E18" t="n">
-        <v>0.06482762828519374</v>
+        <v>0.06722534014136954</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1832018016053807</v>
+        <v>0.1744646347608071</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.9326055831937586</v>
+        <v>-0.643348862800846</v>
       </c>
       <c r="H18" t="n">
-        <v>8.810225571552046</v>
+        <v>7.01610172852216</v>
       </c>
       <c r="I18" t="n">
         <v>0.2729512449634666</v>
@@ -1160,19 +1160,19 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="D19" t="n">
-        <v>117878.1640015444</v>
+        <v>118144.0492536415</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04266486100419854</v>
+        <v>0.05651701431838177</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2372090096908942</v>
+        <v>0.1781844537369143</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.577235698008775</v>
+        <v>-0.52351876643772</v>
       </c>
       <c r="H19" t="n">
-        <v>25.54216820437707</v>
+        <v>6.422084728475692</v>
       </c>
       <c r="I19" t="n">
         <v>0.2002872124710258</v>

--- a/data_processed/20250725/BTCUSDQMOMENT_20250725.xlsx
+++ b/data_processed/20250725/BTCUSDQMOMENT_20250725.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>10.97479141632493</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>-0.1610182544693659</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2649940837679578</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.1474438651294957</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.382592596971871</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">

--- a/data_processed/20250725/BTCUSDQMOMENT_20250725.xlsx
+++ b/data_processed/20250725/BTCUSDQMOMENT_20250725.xlsx
@@ -608,10 +608,18 @@
       <c r="H4" t="n">
         <v>14.6061876952162</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>-0.1981799344354955</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4570840386122355</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.267064564299616</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.636059852754527</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
